--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/04. Excel - Creating a basic dashboard/Material/Ex_Files_Dashboard_Excel2016/Exercise Files/Chapter01/Manage.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/04. Excel - Creating a basic dashboard/Material/Ex_Files_Dashboard_Excel2016/Exercise Files/Chapter01/Manage.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curt\Documents\Writing\Lynda\Creating a Basic Dashboard in Excel 2016\Exercise Files\Chapter01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Descargas\1. GIT\OnlineCourses\17. LinkedIn Learning\01. Microsoft Excel\01. Master Microsoft Excel - Learning Path\04. Excel - Creating a basic dashboard\Material\Ex_Files_Dashboard_Excel2016\Exercise Files\Chapter01\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C7BF19-C117-4097-A593-518D8EF73BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27195" windowHeight="14820"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -102,10 +103,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -163,14 +164,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -178,9 +179,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Moneda" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -200,7 +201,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -234,7 +235,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Curt" refreshedDate="42286.712537615742" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="48">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Curt" refreshedDate="42286.712537615742" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="48" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -257,7 +258,7 @@
         <s v="Piccadilly"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Revenue" numFmtId="164">
+    <cacheField name="Revenue" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="53546" maxValue="192678"/>
     </cacheField>
   </cacheFields>
@@ -611,7 +612,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" showAll="0">
@@ -630,7 +631,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="3"/>
@@ -668,26 +669,29 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Year"/>
-    <tableColumn id="2" name="Quarter"/>
-    <tableColumn id="3" name="Month"/>
-    <tableColumn id="4" name="RoomType"/>
-    <tableColumn id="5" name="Revenue" dataDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Year"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Quarter"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Month"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="RoomType"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Revenue" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1006,22 +1010,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -1029,7 +1033,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1043,7 +1047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1057,7 +1061,7 @@
         <v>2398852</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1071,7 +1075,7 @@
         <v>2737787</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1091,23 +1095,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -1141,7 +1145,7 @@
         <v>90005</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -1158,7 +1162,7 @@
         <v>104397</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -1175,7 +1179,7 @@
         <v>53546</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -1192,7 +1196,7 @@
         <v>103543</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -1209,7 +1213,7 @@
         <v>111353</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -1226,7 +1230,7 @@
         <v>94292</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2015</v>
       </c>
@@ -1243,7 +1247,7 @@
         <v>112334</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -1260,7 +1264,7 @@
         <v>68446</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -1277,7 +1281,7 @@
         <v>82581</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -1294,7 +1298,7 @@
         <v>103366</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -1311,7 +1315,7 @@
         <v>82564</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2015</v>
       </c>
@@ -1328,7 +1332,7 @@
         <v>105459</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -1345,7 +1349,7 @@
         <v>94910</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -1362,7 +1366,7 @@
         <v>133914</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -1379,7 +1383,7 @@
         <v>80115</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -1396,7 +1400,7 @@
         <v>98960</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2015</v>
       </c>
@@ -1413,7 +1417,7 @@
         <v>93664</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2015</v>
       </c>
@@ -1430,7 +1434,7 @@
         <v>98108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2015</v>
       </c>
@@ -1447,7 +1451,7 @@
         <v>73953</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2015</v>
       </c>
@@ -1464,7 +1468,7 @@
         <v>76590</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2015</v>
       </c>
@@ -1481,7 +1485,7 @@
         <v>152078</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2015</v>
       </c>
@@ -1498,7 +1502,7 @@
         <v>78984</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2015</v>
       </c>
@@ -1515,7 +1519,7 @@
         <v>134740</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2015</v>
       </c>
@@ -1532,7 +1536,7 @@
         <v>98717</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2016</v>
       </c>
@@ -1549,7 +1553,7 @@
         <v>134521</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2016</v>
       </c>
@@ -1566,7 +1570,7 @@
         <v>85955</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2016</v>
       </c>
@@ -1583,7 +1587,7 @@
         <v>129781</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2016</v>
       </c>
@@ -1600,7 +1604,7 @@
         <v>101496</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2016</v>
       </c>
@@ -1617,7 +1621,7 @@
         <v>89009</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2016</v>
       </c>
@@ -1634,7 +1638,7 @@
         <v>123314</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2016</v>
       </c>
@@ -1651,7 +1655,7 @@
         <v>130748</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2016</v>
       </c>
@@ -1668,7 +1672,7 @@
         <v>107992</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2016</v>
       </c>
@@ -1685,7 +1689,7 @@
         <v>66601</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2016</v>
       </c>
@@ -1702,7 +1706,7 @@
         <v>74993</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2016</v>
       </c>
@@ -1719,7 +1723,7 @@
         <v>109970</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2016</v>
       </c>
@@ -1736,7 +1740,7 @@
         <v>132586</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2016</v>
       </c>
@@ -1753,7 +1757,7 @@
         <v>96206</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2016</v>
       </c>
@@ -1770,7 +1774,7 @@
         <v>140144</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2016</v>
       </c>
@@ -1787,7 +1791,7 @@
         <v>151357</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2016</v>
       </c>
@@ -1804,7 +1808,7 @@
         <v>100182</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2016</v>
       </c>
@@ -1821,7 +1825,7 @@
         <v>130772</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2016</v>
       </c>
@@ -1838,7 +1842,7 @@
         <v>128983</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2016</v>
       </c>
@@ -1855,7 +1859,7 @@
         <v>88728</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2016</v>
       </c>
@@ -1872,7 +1876,7 @@
         <v>132253</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2016</v>
       </c>
@@ -1889,7 +1893,7 @@
         <v>134305</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2016</v>
       </c>
@@ -1906,7 +1910,7 @@
         <v>192678</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2016</v>
       </c>
@@ -1923,7 +1927,7 @@
         <v>117500</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2016</v>
       </c>
